--- a/_book/data/televisies.xlsx
+++ b/_book/data/televisies.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\studieboeken\excelanalyse\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66EE9C2B-8888-4DDB-9364-32B1B18F5C50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C8B95B-D088-4F85-A068-C142B9E2038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73642908-1ACD-4119-A797-823423C22685}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,7 +75,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -397,9 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14132D4-91F0-407B-869D-69AEEC87EFDB}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,5 +538,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>